--- a/results/benchmarking/TVM-0.15-riscv-public_models-23.03.2024.xlsx
+++ b/results/benchmarking/TVM-0.15-riscv-public_models-23.03.2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dl-benchmark-vasilev\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dl-benchmark-vasilev\results\benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,14 +221,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,7 +1117,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:A6"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,81 +1128,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1217,10 +1217,10 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1241,8 +1241,8 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1285,8 +1285,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1329,8 +1329,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1373,8 +1373,8 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1417,8 +1417,8 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1461,8 +1461,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1505,8 +1505,8 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1525,11 +1525,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
@@ -1549,8 +1549,8 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1569,11 +1569,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>27</v>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
@@ -1593,8 +1593,8 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1637,8 +1637,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1657,11 +1657,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="E1:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A7:A26"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1678,16 +1683,11 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="E1:E6"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
     <cfRule type="notContainsBlanks" dxfId="31" priority="5">
